--- a/Transformdas_i.xlsx
+++ b/Transformdas_i.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia Maxima alcanzada</t>
+          <t>Frecuencia del primer armonico</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Frecuencia del segundo armonico</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Frecuencia tercer armonico</t>
         </is>
       </c>
     </row>
@@ -455,7 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>161.7477155760953</v>
+        <v>160.9074677029721</v>
+      </c>
+      <c r="D2" t="n">
+        <v>323.9155550887517</v>
+      </c>
+      <c r="E2" t="n">
+        <v>486.9236424745304</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>312.4915960736853</v>
+        <v>313.5672986419258</v>
+      </c>
+      <c r="D3" t="n">
+        <v>156.5147236789026</v>
+      </c>
+      <c r="E3" t="n">
+        <v>468.4684684684689</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>186.4502736365353</v>
+        <v>186.4502736365348</v>
+      </c>
+      <c r="D4" t="n">
+        <v>371.3908284581994</v>
+      </c>
+      <c r="E4" t="n">
+        <v>557.8411020947347</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>271.8446601941746</v>
+        <v>271.844660194175</v>
+      </c>
+      <c r="D5" t="n">
+        <v>136.6990291262136</v>
+      </c>
+      <c r="E5" t="n">
+        <v>406.9902912621355</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>303.7263488391309</v>
+        <v>303.0653556969346</v>
+      </c>
+      <c r="D6" t="n">
+        <v>152.358919276212</v>
+      </c>
+      <c r="E6" t="n">
+        <v>455.7547715442452</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>148.2951726093434</v>
+        <v>148.8622669596652</v>
+      </c>
+      <c r="D7" t="n">
+        <v>297.4409867441691</v>
+      </c>
+      <c r="E7" t="n">
+        <v>446.0197065286729</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>209.9517111064456</v>
+        <v>209.9517111064451</v>
+      </c>
+      <c r="D8" t="n">
+        <v>417.384001679613</v>
+      </c>
+      <c r="E8" t="n">
+        <v>619.7774511862272</v>
       </c>
     </row>
     <row r="9">
@@ -548,6 +600,12 @@
       <c r="C9" t="n">
         <v>371.350720124562</v>
       </c>
+      <c r="D9" t="n">
+        <v>185.2861035422343</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2407.162319968859</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -559,7 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>308.6115992970122</v>
+        <v>308.6115992970126</v>
+      </c>
+      <c r="D10" t="n">
+        <v>154.6572934973638</v>
+      </c>
+      <c r="E10" t="n">
+        <v>461.1599297012308</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>379.6507213363702</v>
+        <v>379.6507213363711</v>
+      </c>
+      <c r="D11" t="n">
+        <v>187.6993166287016</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2291.268033409263</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>303.5591274397243</v>
+        <v>303.5591274397248</v>
+      </c>
+      <c r="D12" t="n">
+        <v>606.1997703788747</v>
+      </c>
+      <c r="E12" t="n">
+        <v>250.7462686567164</v>
       </c>
     </row>
     <row r="13">
@@ -600,6 +676,12 @@
       <c r="C13" t="n">
         <v>314.8374480567099</v>
       </c>
+      <c r="D13" t="n">
+        <v>620.8750916646295</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3090.686873625031</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -611,7 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>400.8195921553324</v>
+        <v>401.6001561127914</v>
+      </c>
+      <c r="D14" t="n">
+        <v>201.7757830032197</v>
+      </c>
+      <c r="E14" t="n">
+        <v>602.2050931798226</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>171.1229946524068</v>
+        <v>171.1229946524063</v>
+      </c>
+      <c r="D15" t="n">
+        <v>342.2459893048126</v>
+      </c>
+      <c r="E15" t="n">
+        <v>513.3689839572194</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>188.1599999999999</v>
+        <v>189.0133333333333</v>
+      </c>
+      <c r="D16" t="n">
+        <v>375.8933333333334</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2648.320000000001</v>
       </c>
     </row>
     <row r="17">
@@ -652,6 +752,12 @@
       <c r="C17" t="n">
         <v>331.593490942585</v>
       </c>
+      <c r="D17" t="n">
+        <v>165.7967454712925</v>
+      </c>
+      <c r="E17" t="n">
+        <v>490.0214921707093</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -665,6 +771,12 @@
       <c r="C18" t="n">
         <v>391.5139826422374</v>
       </c>
+      <c r="D18" t="n">
+        <v>195.4355512696884</v>
+      </c>
+      <c r="E18" t="n">
+        <v>586.9495339119258</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -676,7 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>359.6302866212304</v>
+        <v>360.3771823359166</v>
+      </c>
+      <c r="D19" t="n">
+        <v>184.8566893847442</v>
+      </c>
+      <c r="E19" t="n">
+        <v>544.1135281486322</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>323.0753908973211</v>
+        <v>323.8721242904094</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.931978886565</v>
+      </c>
+      <c r="E20" t="n">
+        <v>485.609003087342</v>
       </c>
     </row>
     <row r="21">
@@ -704,6 +828,12 @@
       <c r="C21" t="n">
         <v>312.4042879019908</v>
       </c>
+      <c r="D21" t="n">
+        <v>155.7646029315247</v>
+      </c>
+      <c r="E21" t="n">
+        <v>467.2938087945749</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -717,6 +847,12 @@
       <c r="C22" t="n">
         <v>355.0190029063269</v>
       </c>
+      <c r="D22" t="n">
+        <v>178.403755868545</v>
+      </c>
+      <c r="E22" t="n">
+        <v>538.7882852671587</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -728,7 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>313.4401730409991</v>
+        <v>312.6536230459146</v>
+      </c>
+      <c r="D23" t="n">
+        <v>157.703274014355</v>
+      </c>
+      <c r="E23" t="n">
+        <v>467.6039720774752</v>
       </c>
     </row>
     <row r="24">
@@ -743,6 +885,12 @@
       <c r="C24" t="n">
         <v>165.0294695481334</v>
       </c>
+      <c r="D24" t="n">
+        <v>331.3686967910935</v>
+      </c>
+      <c r="E24" t="n">
+        <v>497.7079240340536</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -754,7 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>265.1022091850764</v>
+        <v>264.368869740581</v>
+      </c>
+      <c r="D25" t="n">
+        <v>524.7043725364383</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2908.057567146393</v>
       </c>
     </row>
     <row r="26">
@@ -767,7 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>245.9367227717044</v>
+        <v>246.3994447336454</v>
+      </c>
+      <c r="D26" t="n">
+        <v>493.0302504482624</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3678.408236450923</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>279.5876288659797</v>
+        <v>279.5876288659792</v>
+      </c>
+      <c r="D27" t="n">
+        <v>560</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2814.845360824742</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>261.8162506638346</v>
+        <v>261.8162506638341</v>
+      </c>
+      <c r="D28" t="n">
+        <v>525.225703664365</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2877.854487519915</v>
       </c>
     </row>
     <row r="29">
@@ -808,6 +980,12 @@
       <c r="C29" t="n">
         <v>491.2612187057157</v>
       </c>
+      <c r="D29" t="n">
+        <v>244.685876239962</v>
+      </c>
+      <c r="E29" t="n">
+        <v>735.9470949456781</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -821,6 +999,12 @@
       <c r="C30" t="n">
         <v>239.8433675966717</v>
       </c>
+      <c r="D30" t="n">
+        <v>479.6867351933433</v>
+      </c>
+      <c r="E30" t="n">
+        <v>719.530102790015</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -832,7 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>259.3103448275861</v>
+        <v>258.4615384615381</v>
+      </c>
+      <c r="D31" t="n">
+        <v>517.3474801061006</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2900.79575596817</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>203.9101041476342</v>
+        <v>203.9101041476333</v>
+      </c>
+      <c r="D32" t="n">
+        <v>399.0498812351543</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2188.196601498264</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>220.2992317023859</v>
+        <v>220.9462191670036</v>
+      </c>
+      <c r="D33" t="n">
+        <v>440.2749696724622</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2871.65386170643</v>
       </c>
     </row>
     <row r="34">
@@ -873,6 +1075,12 @@
       <c r="C34" t="n">
         <v>235.7335546793938</v>
       </c>
+      <c r="D34" t="n">
+        <v>472.2971570865325</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2851.213944801826</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -884,7 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>292.9494588630869</v>
+        <v>292.1088578333511</v>
+      </c>
+      <c r="D35" t="n">
+        <v>586.3192182410421</v>
+      </c>
+      <c r="E35" t="n">
+        <v>183.6713249973732</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>294.4046506799541</v>
+        <v>295.2351292432268</v>
+      </c>
+      <c r="D36" t="n">
+        <v>591.7159763313612</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2964.39323159971</v>
       </c>
     </row>
     <row r="37">
@@ -910,7 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>246.4927777200455</v>
+        <v>247.3241192975165</v>
+      </c>
+      <c r="D37" t="n">
+        <v>499.2206172711212</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2747.168242751741</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>200.4723169771714</v>
+        <v>200.472316977171</v>
+      </c>
+      <c r="D38" t="n">
+        <v>428.2340593020208</v>
+      </c>
+      <c r="E38" t="n">
+        <v>595.1193912358958</v>
       </c>
     </row>
     <row r="39">
@@ -936,7 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>277.8186403278346</v>
+        <v>278.6592413575709</v>
+      </c>
+      <c r="D39" t="n">
+        <v>555.2169801408008</v>
+      </c>
+      <c r="E39" t="n">
+        <v>444.2576442156142</v>
       </c>
     </row>
     <row r="40">
@@ -949,7 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>290.8685140412867</v>
+        <v>290.8685140412872</v>
+      </c>
+      <c r="D40" t="n">
+        <v>578.7613911102844</v>
+      </c>
+      <c r="E40" t="n">
+        <v>427.0039055235266</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>282.0211515863689</v>
+        <v>282.0211515863693</v>
+      </c>
+      <c r="D41" t="n">
+        <v>559.3419506462988</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2820.99490795143</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>323.0109575988563</v>
+        <v>323.0109575988572</v>
+      </c>
+      <c r="D42" t="n">
+        <v>161.0290614578371</v>
+      </c>
+      <c r="E42" t="n">
+        <v>484.992853739876</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>289.0303257207038</v>
+        <v>289.0303257207033</v>
+      </c>
+      <c r="D43" t="n">
+        <v>433.5454885810559</v>
+      </c>
+      <c r="E43" t="n">
+        <v>144.5151628603517</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>201.6677357280305</v>
+        <v>201.6677357280314</v>
+      </c>
+      <c r="D44" t="n">
+        <v>401.7960230917261</v>
+      </c>
+      <c r="E44" t="n">
+        <v>602.9506093649775</v>
       </c>
     </row>
     <row r="45">
@@ -1014,7 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>193.7567276641548</v>
+        <v>194.4191438271091</v>
+      </c>
+      <c r="D45" t="n">
+        <v>388.5070795727415</v>
+      </c>
+      <c r="E45" t="n">
+        <v>581.9325991554192</v>
       </c>
     </row>
     <row r="46">
@@ -1027,7 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>208.4765177548684</v>
+        <v>208.4765177548679</v>
+      </c>
+      <c r="D46" t="n">
+        <v>416.9530355097359</v>
+      </c>
+      <c r="E46" t="n">
+        <v>626.5750286368839</v>
       </c>
     </row>
     <row r="47">
@@ -1040,7 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>402.5996838222372</v>
+        <v>402.5996838222381</v>
+      </c>
+      <c r="D47" t="n">
+        <v>200.9485332864915</v>
+      </c>
+      <c r="E47" t="n">
+        <v>604.250834357983</v>
       </c>
     </row>
     <row r="48">
@@ -1054,6 +1340,12 @@
       </c>
       <c r="C48" t="n">
         <v>223.8885913229778</v>
+      </c>
+      <c r="D48" t="n">
+        <v>448.8484199250133</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2687.198714515265</v>
       </c>
     </row>
   </sheetData>
